--- a/30_詳細設計/詳細設計_Xチーム/詳細設計書/詳細設計共通定義書.xlsx
+++ b/30_詳細設計/詳細設計_Xチーム/詳細設計書/詳細設計共通定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uemura_katsushi\Desktop\新人研修資料\40_成果物\06_課題演習(前半)\30_詳細設計\詳細設計_Xチーム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubSample\sample3_U\30_詳細設計\詳細設計_Xチーム\詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19782B9B-ECFC-42EA-A9F4-6EE16B608021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037A38F1-A6BE-491C-8A52-DF62843D51EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A5E5E11-C186-4A6D-AA7A-E61CA13D9268}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A5E5E11-C186-4A6D-AA7A-E61CA13D9268}"/>
   </bookViews>
   <sheets>
     <sheet name="共通定義" sheetId="1" r:id="rId1"/>
@@ -886,6 +886,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -896,38 +928,6 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1263,12 +1263,12 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.75" style="6"/>
+    <col min="1" max="16384" width="2.69921875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:89" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1361,7 +1361,7 @@
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
     </row>
-    <row r="2" spans="1:89" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:89" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="BA2" s="38"/>
       <c r="BB2" s="39"/>
     </row>
-    <row r="3" spans="1:89" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:89" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -1491,7 +1491,7 @@
       <c r="BA3" s="44"/>
       <c r="BB3" s="45"/>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1555,7 +1555,7 @@
       <c r="BA4" s="4"/>
       <c r="BB4" s="5"/>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="BA5" s="18"/>
       <c r="BB5" s="19"/>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A6" s="27"/>
       <c r="B6" s="22"/>
       <c r="L6" s="25"/>
@@ -1628,7 +1628,7 @@
       <c r="AQ6" s="22"/>
       <c r="BB6" s="25"/>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A7" s="27"/>
       <c r="B7" s="22"/>
       <c r="L7" s="25"/>
@@ -1639,7 +1639,7 @@
       <c r="AQ7" s="22"/>
       <c r="BB7" s="25"/>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A8" s="27"/>
       <c r="B8" s="22"/>
       <c r="L8" s="25"/>
@@ -1650,7 +1650,7 @@
       <c r="AQ8" s="22"/>
       <c r="BB8" s="25"/>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A9" s="27"/>
       <c r="B9" s="22"/>
       <c r="L9" s="25"/>
@@ -1659,7 +1659,7 @@
       <c r="AQ9" s="22"/>
       <c r="BB9" s="25"/>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A10" s="27"/>
       <c r="B10" s="22"/>
       <c r="L10" s="25"/>
@@ -1670,7 +1670,7 @@
       <c r="AQ10" s="22"/>
       <c r="BB10" s="25"/>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A11" s="27"/>
       <c r="B11" s="22"/>
       <c r="L11" s="25"/>
@@ -1681,7 +1681,7 @@
       <c r="AQ11" s="22"/>
       <c r="BB11" s="25"/>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A12" s="27"/>
       <c r="B12" s="22"/>
       <c r="L12" s="25"/>
@@ -1692,7 +1692,7 @@
       <c r="AQ12" s="22"/>
       <c r="BB12" s="25"/>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A13" s="27"/>
       <c r="B13" s="22"/>
       <c r="L13" s="25"/>
@@ -1703,7 +1703,7 @@
       <c r="AQ13" s="22"/>
       <c r="BB13" s="25"/>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A14" s="27"/>
       <c r="B14" s="22"/>
       <c r="L14" s="25"/>
@@ -1714,7 +1714,7 @@
       <c r="AQ14" s="22"/>
       <c r="BB14" s="25"/>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A15" s="27"/>
       <c r="B15" s="22"/>
       <c r="L15" s="25"/>
@@ -1725,7 +1725,7 @@
       <c r="AQ15" s="22"/>
       <c r="BB15" s="25"/>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A16" s="27"/>
       <c r="B16" s="22"/>
       <c r="L16" s="25"/>
@@ -1736,7 +1736,7 @@
       <c r="AQ16" s="22"/>
       <c r="BB16" s="25"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A17" s="27"/>
       <c r="B17" s="22"/>
       <c r="L17" s="25"/>
@@ -1747,7 +1747,7 @@
       <c r="AQ17" s="22"/>
       <c r="BB17" s="25"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A18" s="27"/>
       <c r="B18" s="22"/>
       <c r="L18" s="25"/>
@@ -1758,7 +1758,7 @@
       <c r="AQ18" s="22"/>
       <c r="BB18" s="25"/>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A19" s="27"/>
       <c r="B19" s="22"/>
       <c r="L19" s="25"/>
@@ -1769,7 +1769,7 @@
       <c r="AQ19" s="22"/>
       <c r="BB19" s="25"/>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A20" s="27"/>
       <c r="B20" s="22"/>
       <c r="L20" s="25"/>
@@ -1777,7 +1777,7 @@
       <c r="AQ20" s="22"/>
       <c r="BB20" s="25"/>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A21" s="27"/>
       <c r="B21" s="22"/>
       <c r="L21" s="25"/>
@@ -1788,7 +1788,7 @@
       <c r="AQ21" s="22"/>
       <c r="BB21" s="25"/>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A22" s="27"/>
       <c r="B22" s="22"/>
       <c r="L22" s="25"/>
@@ -1800,7 +1800,7 @@
       <c r="AQ22" s="22"/>
       <c r="BB22" s="25"/>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A23" s="27"/>
       <c r="B23" s="22"/>
       <c r="L23" s="25"/>
@@ -1811,7 +1811,7 @@
       <c r="AQ23" s="22"/>
       <c r="BB23" s="25"/>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A24" s="27"/>
       <c r="B24" s="22"/>
       <c r="L24" s="25"/>
@@ -1823,7 +1823,7 @@
       <c r="AQ24" s="22"/>
       <c r="BB24" s="25"/>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A25" s="27"/>
       <c r="B25" s="22"/>
       <c r="L25" s="25"/>
@@ -1834,7 +1834,7 @@
       <c r="AQ25" s="22"/>
       <c r="BB25" s="25"/>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A26" s="27"/>
       <c r="B26" s="22"/>
       <c r="L26" s="25"/>
@@ -1846,7 +1846,7 @@
       <c r="AQ26" s="22"/>
       <c r="BB26" s="25"/>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A27" s="27"/>
       <c r="B27" s="22"/>
       <c r="L27" s="25"/>
@@ -1857,7 +1857,7 @@
       <c r="AQ27" s="22"/>
       <c r="BB27" s="25"/>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A28" s="27"/>
       <c r="B28" s="22"/>
       <c r="L28" s="25"/>
@@ -1869,7 +1869,7 @@
       <c r="AQ28" s="22"/>
       <c r="BB28" s="25"/>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A29" s="27"/>
       <c r="B29" s="22"/>
       <c r="L29" s="25"/>
@@ -1880,7 +1880,7 @@
       <c r="AQ29" s="22"/>
       <c r="BB29" s="25"/>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A30" s="27"/>
       <c r="B30" s="22"/>
       <c r="L30" s="25"/>
@@ -1892,7 +1892,7 @@
       <c r="AQ30" s="22"/>
       <c r="BB30" s="25"/>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A31" s="27"/>
       <c r="B31" s="22"/>
       <c r="L31" s="25"/>
@@ -1903,7 +1903,7 @@
       <c r="AQ31" s="22"/>
       <c r="BB31" s="25"/>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A32" s="27"/>
       <c r="B32" s="22"/>
       <c r="L32" s="25"/>
@@ -1912,7 +1912,7 @@
       <c r="AQ32" s="22"/>
       <c r="BB32" s="25"/>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A33" s="27"/>
       <c r="B33" s="22"/>
       <c r="L33" s="25"/>
@@ -1923,7 +1923,7 @@
       <c r="AQ33" s="22"/>
       <c r="BB33" s="25"/>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A34" s="27"/>
       <c r="B34" s="22"/>
       <c r="L34" s="25"/>
@@ -1938,7 +1938,7 @@
       <c r="AQ34" s="22"/>
       <c r="BB34" s="25"/>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A35" s="27"/>
       <c r="B35" s="22"/>
       <c r="L35" s="25"/>
@@ -1953,7 +1953,7 @@
       <c r="AQ35" s="22"/>
       <c r="BB35" s="25"/>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A36" s="27"/>
       <c r="B36" s="22"/>
       <c r="L36" s="25"/>
@@ -1968,7 +1968,7 @@
       <c r="AQ36" s="22"/>
       <c r="BB36" s="25"/>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A37" s="27"/>
       <c r="B37" s="22"/>
       <c r="L37" s="25"/>
@@ -1983,7 +1983,7 @@
       <c r="AQ37" s="22"/>
       <c r="BB37" s="25"/>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A38" s="27"/>
       <c r="B38" s="22"/>
       <c r="L38" s="25"/>
@@ -1998,7 +1998,7 @@
       <c r="AQ38" s="22"/>
       <c r="BB38" s="25"/>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A39" s="27"/>
       <c r="B39" s="22"/>
       <c r="L39" s="25"/>
@@ -2013,7 +2013,7 @@
       <c r="AQ39" s="22"/>
       <c r="BB39" s="25"/>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A40" s="27"/>
       <c r="B40" s="22"/>
       <c r="L40" s="25"/>
@@ -2028,7 +2028,7 @@
       <c r="AQ40" s="22"/>
       <c r="BB40" s="25"/>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A41" s="27"/>
       <c r="B41" s="22"/>
       <c r="L41" s="25"/>
@@ -2039,7 +2039,7 @@
       <c r="AQ41" s="22"/>
       <c r="BB41" s="25"/>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A42" s="27"/>
       <c r="B42" s="22"/>
       <c r="L42" s="25"/>
@@ -2048,7 +2048,7 @@
       <c r="AQ42" s="22"/>
       <c r="BB42" s="25"/>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A43" s="28"/>
       <c r="B43" s="23"/>
       <c r="C43" s="24"/>
@@ -2104,7 +2104,7 @@
       <c r="BA43" s="24"/>
       <c r="BB43" s="26"/>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A44" s="27">
         <v>2</v>
       </c>
@@ -2129,7 +2129,7 @@
       <c r="BA44" s="18"/>
       <c r="BB44" s="19"/>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A45" s="28"/>
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
@@ -2187,7 +2187,7 @@
       <c r="BA45" s="24"/>
       <c r="BB45" s="26"/>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -2243,7 +2243,7 @@
       <c r="BA46" s="14"/>
       <c r="BB46" s="15"/>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -2299,7 +2299,7 @@
       <c r="BA47" s="14"/>
       <c r="BB47" s="15"/>
     </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -2355,7 +2355,7 @@
       <c r="BA48" s="14"/>
       <c r="BB48" s="15"/>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -2411,7 +2411,7 @@
       <c r="BA49" s="14"/>
       <c r="BB49" s="15"/>
     </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -2467,7 +2467,7 @@
       <c r="BA50" s="14"/>
       <c r="BB50" s="15"/>
     </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -2523,7 +2523,7 @@
       <c r="BA51" s="14"/>
       <c r="BB51" s="15"/>
     </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -2579,7 +2579,7 @@
       <c r="BA52" s="14"/>
       <c r="BB52" s="15"/>
     </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -2635,7 +2635,7 @@
       <c r="BA53" s="14"/>
       <c r="BB53" s="15"/>
     </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A54" s="12"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -2691,7 +2691,7 @@
       <c r="BA54" s="14"/>
       <c r="BB54" s="15"/>
     </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A55" s="12"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -2747,7 +2747,7 @@
       <c r="BA55" s="14"/>
       <c r="BB55" s="15"/>
     </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A56" s="12"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -2803,7 +2803,7 @@
       <c r="BA56" s="14"/>
       <c r="BB56" s="15"/>
     </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -2883,12 +2883,12 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.75" style="2"/>
+    <col min="1" max="16384" width="2.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -2946,1352 +2946,1262 @@
       <c r="BA1" s="11"/>
       <c r="BB1" s="11"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="61" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="61" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="61" t="s">
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="61" t="s">
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="63"/>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="63"/>
-      <c r="BA2" s="63"/>
-      <c r="BB2" s="62"/>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A3" s="59">
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="50"/>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A3" s="52">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="64">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53">
         <v>44243</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="65" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66" t="s">
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66" t="s">
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="66"/>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A4" s="59">
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="55"/>
+      <c r="BA3" s="55"/>
+      <c r="BB3" s="55"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A4" s="52">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="49"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="49"/>
-      <c r="AZ4" s="49"/>
-      <c r="BA4" s="49"/>
-      <c r="BB4" s="49"/>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A5" s="59">
+      <c r="B4" s="52"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="63"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A5" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="49"/>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="49"/>
-      <c r="AP5" s="49"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="49"/>
-      <c r="AS5" s="49"/>
-      <c r="AT5" s="49"/>
-      <c r="AU5" s="49"/>
-      <c r="AV5" s="49"/>
-      <c r="AW5" s="49"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="49"/>
-      <c r="AZ5" s="49"/>
-      <c r="BA5" s="49"/>
-      <c r="BB5" s="49"/>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A6" s="59">
+      <c r="B5" s="52"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="63"/>
+      <c r="AM5" s="63"/>
+      <c r="AN5" s="63"/>
+      <c r="AO5" s="63"/>
+      <c r="AP5" s="63"/>
+      <c r="AQ5" s="63"/>
+      <c r="AR5" s="63"/>
+      <c r="AS5" s="63"/>
+      <c r="AT5" s="63"/>
+      <c r="AU5" s="63"/>
+      <c r="AV5" s="63"/>
+      <c r="AW5" s="63"/>
+      <c r="AX5" s="63"/>
+      <c r="AY5" s="63"/>
+      <c r="AZ5" s="63"/>
+      <c r="BA5" s="63"/>
+      <c r="BB5" s="63"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A6" s="52">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="49"/>
-      <c r="AM6" s="49"/>
-      <c r="AN6" s="49"/>
-      <c r="AO6" s="49"/>
-      <c r="AP6" s="49"/>
-      <c r="AQ6" s="49"/>
-      <c r="AR6" s="49"/>
-      <c r="AS6" s="49"/>
-      <c r="AT6" s="49"/>
-      <c r="AU6" s="49"/>
-      <c r="AV6" s="49"/>
-      <c r="AW6" s="49"/>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="49"/>
-      <c r="BB6" s="49"/>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A7" s="59">
+      <c r="B6" s="52"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="63"/>
+      <c r="AN6" s="63"/>
+      <c r="AO6" s="63"/>
+      <c r="AP6" s="63"/>
+      <c r="AQ6" s="63"/>
+      <c r="AR6" s="63"/>
+      <c r="AS6" s="63"/>
+      <c r="AT6" s="63"/>
+      <c r="AU6" s="63"/>
+      <c r="AV6" s="63"/>
+      <c r="AW6" s="63"/>
+      <c r="AX6" s="63"/>
+      <c r="AY6" s="63"/>
+      <c r="AZ6" s="63"/>
+      <c r="BA6" s="63"/>
+      <c r="BB6" s="63"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A7" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="49"/>
-      <c r="AK7" s="49"/>
-      <c r="AL7" s="49"/>
-      <c r="AM7" s="49"/>
-      <c r="AN7" s="49"/>
-      <c r="AO7" s="49"/>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="49"/>
-      <c r="AR7" s="49"/>
-      <c r="AS7" s="49"/>
-      <c r="AT7" s="49"/>
-      <c r="AU7" s="49"/>
-      <c r="AV7" s="49"/>
-      <c r="AW7" s="49"/>
-      <c r="AX7" s="49"/>
-      <c r="AY7" s="49"/>
-      <c r="AZ7" s="49"/>
-      <c r="BA7" s="49"/>
-      <c r="BB7" s="49"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A8" s="59">
+      <c r="B7" s="52"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="63"/>
+      <c r="AH7" s="63"/>
+      <c r="AI7" s="63"/>
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="63"/>
+      <c r="AM7" s="63"/>
+      <c r="AN7" s="63"/>
+      <c r="AO7" s="63"/>
+      <c r="AP7" s="63"/>
+      <c r="AQ7" s="63"/>
+      <c r="AR7" s="63"/>
+      <c r="AS7" s="63"/>
+      <c r="AT7" s="63"/>
+      <c r="AU7" s="63"/>
+      <c r="AV7" s="63"/>
+      <c r="AW7" s="63"/>
+      <c r="AX7" s="63"/>
+      <c r="AY7" s="63"/>
+      <c r="AZ7" s="63"/>
+      <c r="BA7" s="63"/>
+      <c r="BB7" s="63"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A8" s="52">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="49"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="49"/>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="49"/>
-      <c r="AO8" s="49"/>
-      <c r="AP8" s="49"/>
-      <c r="AQ8" s="49"/>
-      <c r="AR8" s="49"/>
-      <c r="AS8" s="49"/>
-      <c r="AT8" s="49"/>
-      <c r="AU8" s="49"/>
-      <c r="AV8" s="49"/>
-      <c r="AW8" s="49"/>
-      <c r="AX8" s="49"/>
-      <c r="AY8" s="49"/>
-      <c r="AZ8" s="49"/>
-      <c r="BA8" s="49"/>
-      <c r="BB8" s="49"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A9" s="59">
+      <c r="B8" s="52"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="61"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="63"/>
+      <c r="AM8" s="63"/>
+      <c r="AN8" s="63"/>
+      <c r="AO8" s="63"/>
+      <c r="AP8" s="63"/>
+      <c r="AQ8" s="63"/>
+      <c r="AR8" s="63"/>
+      <c r="AS8" s="63"/>
+      <c r="AT8" s="63"/>
+      <c r="AU8" s="63"/>
+      <c r="AV8" s="63"/>
+      <c r="AW8" s="63"/>
+      <c r="AX8" s="63"/>
+      <c r="AY8" s="63"/>
+      <c r="AZ8" s="63"/>
+      <c r="BA8" s="63"/>
+      <c r="BB8" s="63"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A9" s="52">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="49"/>
-      <c r="AH9" s="49"/>
-      <c r="AI9" s="49"/>
-      <c r="AJ9" s="49"/>
-      <c r="AK9" s="49"/>
-      <c r="AL9" s="49"/>
-      <c r="AM9" s="49"/>
-      <c r="AN9" s="49"/>
-      <c r="AO9" s="49"/>
-      <c r="AP9" s="49"/>
-      <c r="AQ9" s="49"/>
-      <c r="AR9" s="49"/>
-      <c r="AS9" s="49"/>
-      <c r="AT9" s="49"/>
-      <c r="AU9" s="49"/>
-      <c r="AV9" s="49"/>
-      <c r="AW9" s="49"/>
-      <c r="AX9" s="49"/>
-      <c r="AY9" s="49"/>
-      <c r="AZ9" s="49"/>
-      <c r="BA9" s="49"/>
-      <c r="BB9" s="49"/>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A10" s="59">
+      <c r="B9" s="52"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
+      <c r="AD9" s="63"/>
+      <c r="AE9" s="63"/>
+      <c r="AF9" s="63"/>
+      <c r="AG9" s="63"/>
+      <c r="AH9" s="63"/>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="63"/>
+      <c r="AK9" s="63"/>
+      <c r="AL9" s="63"/>
+      <c r="AM9" s="63"/>
+      <c r="AN9" s="63"/>
+      <c r="AO9" s="63"/>
+      <c r="AP9" s="63"/>
+      <c r="AQ9" s="63"/>
+      <c r="AR9" s="63"/>
+      <c r="AS9" s="63"/>
+      <c r="AT9" s="63"/>
+      <c r="AU9" s="63"/>
+      <c r="AV9" s="63"/>
+      <c r="AW9" s="63"/>
+      <c r="AX9" s="63"/>
+      <c r="AY9" s="63"/>
+      <c r="AZ9" s="63"/>
+      <c r="BA9" s="63"/>
+      <c r="BB9" s="63"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A10" s="52">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="49"/>
-      <c r="AK10" s="49"/>
-      <c r="AL10" s="49"/>
-      <c r="AM10" s="49"/>
-      <c r="AN10" s="49"/>
-      <c r="AO10" s="49"/>
-      <c r="AP10" s="49"/>
-      <c r="AQ10" s="49"/>
-      <c r="AR10" s="49"/>
-      <c r="AS10" s="49"/>
-      <c r="AT10" s="49"/>
-      <c r="AU10" s="49"/>
-      <c r="AV10" s="49"/>
-      <c r="AW10" s="49"/>
-      <c r="AX10" s="49"/>
-      <c r="AY10" s="49"/>
-      <c r="AZ10" s="49"/>
-      <c r="BA10" s="49"/>
-      <c r="BB10" s="49"/>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
+      <c r="B10" s="52"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="63"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="63"/>
+      <c r="AM10" s="63"/>
+      <c r="AN10" s="63"/>
+      <c r="AO10" s="63"/>
+      <c r="AP10" s="63"/>
+      <c r="AQ10" s="63"/>
+      <c r="AR10" s="63"/>
+      <c r="AS10" s="63"/>
+      <c r="AT10" s="63"/>
+      <c r="AU10" s="63"/>
+      <c r="AV10" s="63"/>
+      <c r="AW10" s="63"/>
+      <c r="AX10" s="63"/>
+      <c r="AY10" s="63"/>
+      <c r="AZ10" s="63"/>
+      <c r="BA10" s="63"/>
+      <c r="BB10" s="63"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A11" s="52">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="49"/>
-      <c r="AK11" s="49"/>
-      <c r="AL11" s="49"/>
-      <c r="AM11" s="49"/>
-      <c r="AN11" s="49"/>
-      <c r="AO11" s="49"/>
-      <c r="AP11" s="49"/>
-      <c r="AQ11" s="49"/>
-      <c r="AR11" s="49"/>
-      <c r="AS11" s="49"/>
-      <c r="AT11" s="49"/>
-      <c r="AU11" s="49"/>
-      <c r="AV11" s="49"/>
-      <c r="AW11" s="49"/>
-      <c r="AX11" s="49"/>
-      <c r="AY11" s="49"/>
-      <c r="AZ11" s="49"/>
-      <c r="BA11" s="49"/>
-      <c r="BB11" s="49"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A12" s="59">
+      <c r="B11" s="52"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="63"/>
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="63"/>
+      <c r="AK11" s="63"/>
+      <c r="AL11" s="63"/>
+      <c r="AM11" s="63"/>
+      <c r="AN11" s="63"/>
+      <c r="AO11" s="63"/>
+      <c r="AP11" s="63"/>
+      <c r="AQ11" s="63"/>
+      <c r="AR11" s="63"/>
+      <c r="AS11" s="63"/>
+      <c r="AT11" s="63"/>
+      <c r="AU11" s="63"/>
+      <c r="AV11" s="63"/>
+      <c r="AW11" s="63"/>
+      <c r="AX11" s="63"/>
+      <c r="AY11" s="63"/>
+      <c r="AZ11" s="63"/>
+      <c r="BA11" s="63"/>
+      <c r="BB11" s="63"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A12" s="52">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="49"/>
-      <c r="AH12" s="49"/>
-      <c r="AI12" s="49"/>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
-      <c r="AP12" s="49"/>
-      <c r="AQ12" s="49"/>
-      <c r="AR12" s="49"/>
-      <c r="AS12" s="49"/>
-      <c r="AT12" s="49"/>
-      <c r="AU12" s="49"/>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="49"/>
-      <c r="BB12" s="49"/>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A13" s="59">
+      <c r="B12" s="52"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="63"/>
+      <c r="AL12" s="63"/>
+      <c r="AM12" s="63"/>
+      <c r="AN12" s="63"/>
+      <c r="AO12" s="63"/>
+      <c r="AP12" s="63"/>
+      <c r="AQ12" s="63"/>
+      <c r="AR12" s="63"/>
+      <c r="AS12" s="63"/>
+      <c r="AT12" s="63"/>
+      <c r="AU12" s="63"/>
+      <c r="AV12" s="63"/>
+      <c r="AW12" s="63"/>
+      <c r="AX12" s="63"/>
+      <c r="AY12" s="63"/>
+      <c r="AZ12" s="63"/>
+      <c r="BA12" s="63"/>
+      <c r="BB12" s="63"/>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A13" s="52">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="49"/>
-      <c r="AL13" s="49"/>
-      <c r="AM13" s="49"/>
-      <c r="AN13" s="49"/>
-      <c r="AO13" s="49"/>
-      <c r="AP13" s="49"/>
-      <c r="AQ13" s="49"/>
-      <c r="AR13" s="49"/>
-      <c r="AS13" s="49"/>
-      <c r="AT13" s="49"/>
-      <c r="AU13" s="49"/>
-      <c r="AV13" s="49"/>
-      <c r="AW13" s="49"/>
-      <c r="AX13" s="49"/>
-      <c r="AY13" s="49"/>
-      <c r="AZ13" s="49"/>
-      <c r="BA13" s="49"/>
-      <c r="BB13" s="49"/>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A14" s="59">
+      <c r="B13" s="52"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
+      <c r="AD13" s="63"/>
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="63"/>
+      <c r="AJ13" s="63"/>
+      <c r="AK13" s="63"/>
+      <c r="AL13" s="63"/>
+      <c r="AM13" s="63"/>
+      <c r="AN13" s="63"/>
+      <c r="AO13" s="63"/>
+      <c r="AP13" s="63"/>
+      <c r="AQ13" s="63"/>
+      <c r="AR13" s="63"/>
+      <c r="AS13" s="63"/>
+      <c r="AT13" s="63"/>
+      <c r="AU13" s="63"/>
+      <c r="AV13" s="63"/>
+      <c r="AW13" s="63"/>
+      <c r="AX13" s="63"/>
+      <c r="AY13" s="63"/>
+      <c r="AZ13" s="63"/>
+      <c r="BA13" s="63"/>
+      <c r="BB13" s="63"/>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A14" s="52">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="49"/>
-      <c r="AK14" s="49"/>
-      <c r="AL14" s="49"/>
-      <c r="AM14" s="49"/>
-      <c r="AN14" s="49"/>
-      <c r="AO14" s="49"/>
-      <c r="AP14" s="49"/>
-      <c r="AQ14" s="49"/>
-      <c r="AR14" s="49"/>
-      <c r="AS14" s="49"/>
-      <c r="AT14" s="49"/>
-      <c r="AU14" s="49"/>
-      <c r="AV14" s="49"/>
-      <c r="AW14" s="49"/>
-      <c r="AX14" s="49"/>
-      <c r="AY14" s="49"/>
-      <c r="AZ14" s="49"/>
-      <c r="BA14" s="49"/>
-      <c r="BB14" s="49"/>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A15" s="59">
+      <c r="B14" s="52"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63"/>
+      <c r="AG14" s="63"/>
+      <c r="AH14" s="63"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="63"/>
+      <c r="AM14" s="63"/>
+      <c r="AN14" s="63"/>
+      <c r="AO14" s="63"/>
+      <c r="AP14" s="63"/>
+      <c r="AQ14" s="63"/>
+      <c r="AR14" s="63"/>
+      <c r="AS14" s="63"/>
+      <c r="AT14" s="63"/>
+      <c r="AU14" s="63"/>
+      <c r="AV14" s="63"/>
+      <c r="AW14" s="63"/>
+      <c r="AX14" s="63"/>
+      <c r="AY14" s="63"/>
+      <c r="AZ14" s="63"/>
+      <c r="BA14" s="63"/>
+      <c r="BB14" s="63"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A15" s="52">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="49"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="49"/>
-      <c r="AG15" s="49"/>
-      <c r="AH15" s="49"/>
-      <c r="AI15" s="49"/>
-      <c r="AJ15" s="49"/>
-      <c r="AK15" s="49"/>
-      <c r="AL15" s="49"/>
-      <c r="AM15" s="49"/>
-      <c r="AN15" s="49"/>
-      <c r="AO15" s="49"/>
-      <c r="AP15" s="49"/>
-      <c r="AQ15" s="49"/>
-      <c r="AR15" s="49"/>
-      <c r="AS15" s="49"/>
-      <c r="AT15" s="49"/>
-      <c r="AU15" s="49"/>
-      <c r="AV15" s="49"/>
-      <c r="AW15" s="49"/>
-      <c r="AX15" s="49"/>
-      <c r="AY15" s="49"/>
-      <c r="AZ15" s="49"/>
-      <c r="BA15" s="49"/>
-      <c r="BB15" s="49"/>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A16" s="59">
+      <c r="B15" s="52"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="63"/>
+      <c r="AM15" s="63"/>
+      <c r="AN15" s="63"/>
+      <c r="AO15" s="63"/>
+      <c r="AP15" s="63"/>
+      <c r="AQ15" s="63"/>
+      <c r="AR15" s="63"/>
+      <c r="AS15" s="63"/>
+      <c r="AT15" s="63"/>
+      <c r="AU15" s="63"/>
+      <c r="AV15" s="63"/>
+      <c r="AW15" s="63"/>
+      <c r="AX15" s="63"/>
+      <c r="AY15" s="63"/>
+      <c r="AZ15" s="63"/>
+      <c r="BA15" s="63"/>
+      <c r="BB15" s="63"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A16" s="52">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="49"/>
-      <c r="AH16" s="49"/>
-      <c r="AI16" s="49"/>
-      <c r="AJ16" s="49"/>
-      <c r="AK16" s="49"/>
-      <c r="AL16" s="49"/>
-      <c r="AM16" s="49"/>
-      <c r="AN16" s="49"/>
-      <c r="AO16" s="49"/>
-      <c r="AP16" s="49"/>
-      <c r="AQ16" s="49"/>
-      <c r="AR16" s="49"/>
-      <c r="AS16" s="49"/>
-      <c r="AT16" s="49"/>
-      <c r="AU16" s="49"/>
-      <c r="AV16" s="49"/>
-      <c r="AW16" s="49"/>
-      <c r="AX16" s="49"/>
-      <c r="AY16" s="49"/>
-      <c r="AZ16" s="49"/>
-      <c r="BA16" s="49"/>
-      <c r="BB16" s="49"/>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A17" s="59">
+      <c r="B16" s="52"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
+      <c r="AM16" s="63"/>
+      <c r="AN16" s="63"/>
+      <c r="AO16" s="63"/>
+      <c r="AP16" s="63"/>
+      <c r="AQ16" s="63"/>
+      <c r="AR16" s="63"/>
+      <c r="AS16" s="63"/>
+      <c r="AT16" s="63"/>
+      <c r="AU16" s="63"/>
+      <c r="AV16" s="63"/>
+      <c r="AW16" s="63"/>
+      <c r="AX16" s="63"/>
+      <c r="AY16" s="63"/>
+      <c r="AZ16" s="63"/>
+      <c r="BA16" s="63"/>
+      <c r="BB16" s="63"/>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A17" s="52">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="49"/>
-      <c r="AH17" s="49"/>
-      <c r="AI17" s="49"/>
-      <c r="AJ17" s="49"/>
-      <c r="AK17" s="49"/>
-      <c r="AL17" s="49"/>
-      <c r="AM17" s="49"/>
-      <c r="AN17" s="49"/>
-      <c r="AO17" s="49"/>
-      <c r="AP17" s="49"/>
-      <c r="AQ17" s="49"/>
-      <c r="AR17" s="49"/>
-      <c r="AS17" s="49"/>
-      <c r="AT17" s="49"/>
-      <c r="AU17" s="49"/>
-      <c r="AV17" s="49"/>
-      <c r="AW17" s="49"/>
-      <c r="AX17" s="49"/>
-      <c r="AY17" s="49"/>
-      <c r="AZ17" s="49"/>
-      <c r="BA17" s="49"/>
-      <c r="BB17" s="49"/>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A18" s="59">
+      <c r="B17" s="52"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="63"/>
+      <c r="AM17" s="63"/>
+      <c r="AN17" s="63"/>
+      <c r="AO17" s="63"/>
+      <c r="AP17" s="63"/>
+      <c r="AQ17" s="63"/>
+      <c r="AR17" s="63"/>
+      <c r="AS17" s="63"/>
+      <c r="AT17" s="63"/>
+      <c r="AU17" s="63"/>
+      <c r="AV17" s="63"/>
+      <c r="AW17" s="63"/>
+      <c r="AX17" s="63"/>
+      <c r="AY17" s="63"/>
+      <c r="AZ17" s="63"/>
+      <c r="BA17" s="63"/>
+      <c r="BB17" s="63"/>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A18" s="52">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="57"/>
-      <c r="AJ18" s="57"/>
-      <c r="AK18" s="57"/>
-      <c r="AL18" s="57"/>
-      <c r="AM18" s="57"/>
-      <c r="AN18" s="57"/>
-      <c r="AO18" s="57"/>
-      <c r="AP18" s="57"/>
-      <c r="AQ18" s="57"/>
-      <c r="AR18" s="57"/>
-      <c r="AS18" s="57"/>
-      <c r="AT18" s="57"/>
-      <c r="AU18" s="57"/>
-      <c r="AV18" s="57"/>
-      <c r="AW18" s="57"/>
-      <c r="AX18" s="57"/>
-      <c r="AY18" s="57"/>
-      <c r="AZ18" s="57"/>
-      <c r="BA18" s="57"/>
-      <c r="BB18" s="58"/>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A19" s="59">
+      <c r="B18" s="52"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="60"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="61"/>
+      <c r="AS18" s="61"/>
+      <c r="AT18" s="61"/>
+      <c r="AU18" s="61"/>
+      <c r="AV18" s="61"/>
+      <c r="AW18" s="61"/>
+      <c r="AX18" s="61"/>
+      <c r="AY18" s="61"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="61"/>
+      <c r="BB18" s="62"/>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A19" s="52">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="57"/>
-      <c r="AD19" s="57"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="57"/>
-      <c r="AH19" s="57"/>
-      <c r="AI19" s="57"/>
-      <c r="AJ19" s="57"/>
-      <c r="AK19" s="57"/>
-      <c r="AL19" s="57"/>
-      <c r="AM19" s="57"/>
-      <c r="AN19" s="57"/>
-      <c r="AO19" s="57"/>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="57"/>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
-      <c r="AT19" s="57"/>
-      <c r="AU19" s="57"/>
-      <c r="AV19" s="57"/>
-      <c r="AW19" s="57"/>
-      <c r="AX19" s="57"/>
-      <c r="AY19" s="57"/>
-      <c r="AZ19" s="57"/>
-      <c r="BA19" s="57"/>
-      <c r="BB19" s="58"/>
-    </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A20" s="59">
+      <c r="B19" s="52"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="61"/>
+      <c r="AK19" s="61"/>
+      <c r="AL19" s="61"/>
+      <c r="AM19" s="61"/>
+      <c r="AN19" s="61"/>
+      <c r="AO19" s="61"/>
+      <c r="AP19" s="61"/>
+      <c r="AQ19" s="61"/>
+      <c r="AR19" s="61"/>
+      <c r="AS19" s="61"/>
+      <c r="AT19" s="61"/>
+      <c r="AU19" s="61"/>
+      <c r="AV19" s="61"/>
+      <c r="AW19" s="61"/>
+      <c r="AX19" s="61"/>
+      <c r="AY19" s="61"/>
+      <c r="AZ19" s="61"/>
+      <c r="BA19" s="61"/>
+      <c r="BB19" s="62"/>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A20" s="52">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="57"/>
-      <c r="AK20" s="57"/>
-      <c r="AL20" s="57"/>
-      <c r="AM20" s="57"/>
-      <c r="AN20" s="57"/>
-      <c r="AO20" s="57"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="57"/>
-      <c r="AR20" s="57"/>
-      <c r="AS20" s="57"/>
-      <c r="AT20" s="57"/>
-      <c r="AU20" s="57"/>
-      <c r="AV20" s="57"/>
-      <c r="AW20" s="57"/>
-      <c r="AX20" s="57"/>
-      <c r="AY20" s="57"/>
-      <c r="AZ20" s="57"/>
-      <c r="BA20" s="57"/>
-      <c r="BB20" s="58"/>
-    </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A21" s="59">
+      <c r="B20" s="52"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="61"/>
+      <c r="AK20" s="61"/>
+      <c r="AL20" s="61"/>
+      <c r="AM20" s="61"/>
+      <c r="AN20" s="61"/>
+      <c r="AO20" s="61"/>
+      <c r="AP20" s="61"/>
+      <c r="AQ20" s="61"/>
+      <c r="AR20" s="61"/>
+      <c r="AS20" s="61"/>
+      <c r="AT20" s="61"/>
+      <c r="AU20" s="61"/>
+      <c r="AV20" s="61"/>
+      <c r="AW20" s="61"/>
+      <c r="AX20" s="61"/>
+      <c r="AY20" s="61"/>
+      <c r="AZ20" s="61"/>
+      <c r="BA20" s="61"/>
+      <c r="BB20" s="62"/>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A21" s="52">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
-      <c r="AD21" s="57"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="57"/>
-      <c r="AG21" s="57"/>
-      <c r="AH21" s="57"/>
-      <c r="AI21" s="57"/>
-      <c r="AJ21" s="57"/>
-      <c r="AK21" s="57"/>
-      <c r="AL21" s="57"/>
-      <c r="AM21" s="57"/>
-      <c r="AN21" s="57"/>
-      <c r="AO21" s="57"/>
-      <c r="AP21" s="57"/>
-      <c r="AQ21" s="57"/>
-      <c r="AR21" s="57"/>
-      <c r="AS21" s="57"/>
-      <c r="AT21" s="57"/>
-      <c r="AU21" s="57"/>
-      <c r="AV21" s="57"/>
-      <c r="AW21" s="57"/>
-      <c r="AX21" s="57"/>
-      <c r="AY21" s="57"/>
-      <c r="AZ21" s="57"/>
-      <c r="BA21" s="57"/>
-      <c r="BB21" s="58"/>
-    </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A22" s="49">
+      <c r="B21" s="52"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="61"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="61"/>
+      <c r="AO21" s="61"/>
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="61"/>
+      <c r="AR21" s="61"/>
+      <c r="AS21" s="61"/>
+      <c r="AT21" s="61"/>
+      <c r="AU21" s="61"/>
+      <c r="AV21" s="61"/>
+      <c r="AW21" s="61"/>
+      <c r="AX21" s="61"/>
+      <c r="AY21" s="61"/>
+      <c r="AZ21" s="61"/>
+      <c r="BA21" s="61"/>
+      <c r="BB21" s="62"/>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A22" s="63">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="57"/>
-      <c r="AC22" s="57"/>
-      <c r="AD22" s="57"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="57"/>
-      <c r="AG22" s="57"/>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="57"/>
-      <c r="AJ22" s="57"/>
-      <c r="AK22" s="57"/>
-      <c r="AL22" s="57"/>
-      <c r="AM22" s="57"/>
-      <c r="AN22" s="57"/>
-      <c r="AO22" s="57"/>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="57"/>
-      <c r="AR22" s="57"/>
-      <c r="AS22" s="57"/>
-      <c r="AT22" s="57"/>
-      <c r="AU22" s="57"/>
-      <c r="AV22" s="57"/>
-      <c r="AW22" s="57"/>
-      <c r="AX22" s="57"/>
-      <c r="AY22" s="57"/>
-      <c r="AZ22" s="57"/>
-      <c r="BA22" s="57"/>
-      <c r="BB22" s="58"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="60"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="61"/>
+      <c r="AK22" s="61"/>
+      <c r="AL22" s="61"/>
+      <c r="AM22" s="61"/>
+      <c r="AN22" s="61"/>
+      <c r="AO22" s="61"/>
+      <c r="AP22" s="61"/>
+      <c r="AQ22" s="61"/>
+      <c r="AR22" s="61"/>
+      <c r="AS22" s="61"/>
+      <c r="AT22" s="61"/>
+      <c r="AU22" s="61"/>
+      <c r="AV22" s="61"/>
+      <c r="AW22" s="61"/>
+      <c r="AX22" s="61"/>
+      <c r="AY22" s="61"/>
+      <c r="AZ22" s="61"/>
+      <c r="BA22" s="61"/>
+      <c r="BB22" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:Z2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:Z3"/>
-    <mergeCell ref="AA3:BB3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Z4"/>
-    <mergeCell ref="AA4:BB4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:Z5"/>
-    <mergeCell ref="AA5:BB5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:Z6"/>
-    <mergeCell ref="AA6:BB6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:Z7"/>
-    <mergeCell ref="AA7:BB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:Z8"/>
-    <mergeCell ref="AA8:BB8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Z9"/>
-    <mergeCell ref="AA9:BB9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:Z10"/>
-    <mergeCell ref="AA10:BB10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="AA11:BB11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:Z12"/>
-    <mergeCell ref="AA12:BB12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="AA13:BB13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:Z14"/>
-    <mergeCell ref="AA14:BB14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:Z15"/>
-    <mergeCell ref="AA15:BB15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Z16"/>
-    <mergeCell ref="AA16:BB16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="AA17:BB17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="AA18:BB18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="AA19:BB19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -4307,6 +4217,96 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:Z21"/>
     <mergeCell ref="AA21:BB21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
